--- a/海龟汤.xlsx
+++ b/海龟汤.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
   <si>
     <t>title</t>
   </si>
@@ -438,6 +438,184 @@
   </si>
   <si>
     <t>男子是一个守天平间的看管人，最近天平间有尸体丢失找不到去处，他报警，警察在每俱尸体上涂抹了一种荧光粉，在夜间会显现绿色，再次尸体消失后警察依然没有线索，男子早上起来刷牙发现自己牙齿是绿色。（他有梦游异食癖，他半夜梦游起来吃尸体）</t>
+  </si>
+  <si>
+    <t>舞</t>
+  </si>
+  <si>
+    <t>我六岁那年，外公去世，我和亲人一起去祭奠，和姐姐玩捉迷藏，然后我对母亲说了句话把她吓昏了过去，我说了啥?</t>
+  </si>
+  <si>
+    <t>我去参加外公的葬礼，同行的还有比我大两岁的姐姐，我和她完捉迷藏我没有找到她没想到她躲在了纸做的房子里，当纸房子被点燃，我看见姐姐在跳舞，我对妈说，妈姐姐在那房子里面跳舞，因为姐姐被烧死了，我一直记得这个事。</t>
+  </si>
+  <si>
+    <t>夜里，男人开着车行驶在乡间的小路上，突然他肚子很痛于是从副驾驶上的一叠纸中抽出了几张，来到田野上他突然笑了又哭了，第二天男人死了</t>
+  </si>
+  <si>
+    <t>男子的妻子不见了，这些纸都是他寻他妻子的寻人启事，他开着车在满世界找他妻子，去贴寻人启事，经过小路的时候男人想上厕所，拿着纸去往田间，却看见自己妻子被人杀死而且做成了如稻草人一样的模样，他笑是因为找到了妻子，哭是因为妻子死了，他悲痛万分，第二天他上吊自杀去陪妻子。</t>
+  </si>
+  <si>
+    <t>小明穿着雨鞋，和他的狗死在空旷的地方，血肉模糊。</t>
+  </si>
+  <si>
+    <t>小明是一个喜欢炸鱼的渔民，他将鱼雷扔向水的方向向空旷地方跑去，没想到他的狗以为主人想扔个东西叫自己捡回来，狗挑起叼着鱼雷陪小明一起跑过来，最终小明和狗一起被鱼雷炸死。</t>
+  </si>
+  <si>
+    <t>小明死在空旷的地方，血肉模糊。</t>
+  </si>
+  <si>
+    <t>小明是一个偷渡飞机的偷渡者，他躲在飞机的货物贮藏间里，当飞机穿过平流层的时候出现了一点点小鼓掌，导致货物贮藏间里恒温系统故障，也就是空调不工作了，最终小明冻死在货物贮藏间，而后货物贮藏间出现了一个不紧锁的门，小明掉下去，被摔得血肉模糊。（此题重点是他被冻死的）</t>
+  </si>
+  <si>
+    <t>小明一天洗七次头，为什么？</t>
+  </si>
+  <si>
+    <t>小明的母亲被入室劫匪在彼此搏斗中杀死，当时小明并不在家，当他回家时发现自己母亲死亡，头颅被割掉找不到了（因为是亲人，所以身体小明还是能辨认确实是自己母亲)，他报了警，警察来整理现场也一直没有找到母亲的头颅，几年后，小明在浴室洗头的时候无意间一滴属于人体组织液混合血液的液体低落在他头上，他好奇向上看，看见排风扇里自己母亲干枯的头颅，小明被吓疯了，从此每天洗七次头甚至更多次。</t>
+  </si>
+  <si>
+    <t>生活拮据的孤寡老人杰克，被发现死在家中，生前好像正在吃饭，尸体被发现时已经残缺不全，而尸体周围的景象也十分诡异。推故事全貌和诡异景象是什么。</t>
+  </si>
+  <si>
+    <t>老人养了很多流浪猫，邻居感觉很臭又扰民，在鱼里下了毒，告诉老人鱼快坏了，给猫吃。老人认为鱼还很新鲜，自己做了吃了，毒死，猫被锁在家里，没吃的吃了有毒的尸体也死了，后来臭味太大被人发现。</t>
+  </si>
+  <si>
+    <t>杰克最后的出租车</t>
+  </si>
+  <si>
+    <t>杰克坐上出租车，要求司机赶快把他送到目的地。不久后他被枪杀了。</t>
+  </si>
+  <si>
+    <t>杰克的目的地是出租车司机和他妻子居住的房子，司机一直怀疑妻子有个情人，但没想到能和这位神秘情人坐的如此近，他立即知道该怎么做了。</t>
+  </si>
+  <si>
+    <t>最后是自己</t>
+  </si>
+  <si>
+    <t>一开始是动物，然后是同类的尸体，接着是同类，最后是自己。</t>
+  </si>
+  <si>
+    <t>少女为了复活爱人乞求邪神，邪神告诉她以五脏六腑为引的邪术，但没有告诉她要用自己的脏器。少女一个个尝试过来，最终用自己的性命换取爱人的性命。</t>
+  </si>
+  <si>
+    <t>列车上的超能力者</t>
+  </si>
+  <si>
+    <t>一列特快车，大概在还差10分就午夜12点的时候，在中途站有一名男子上了列车，他在车门关闭后，像是突然回复意识一般，开始左右环视着周遭乘客的脸。
+　　“恕我愚昧，请问您今年28岁吗?”他如此的向另一位乘客问道
+　　乘客回答“是的，不过您怎么知道呢?”
+　　但被他无视，只是自顾自的和别人说话。
+　　“您今年45岁吧?”——“是没错。”
+　　“您是62岁吗?”——“你怎么知道的?”
+　　男子问完一圈后，回到自己的座位静静坐下。
+　　绝望痛哭。</t>
+  </si>
+  <si>
+    <t>男人能看出一个人能活多少岁，却看不出自己能活多久，而他们寿命将完，也就是说他也要死了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乡间小路上，五名男子一同前行。突然，天上哗哗地下起雨来，五人中的四人加快了步伐，然而第五人一点也不见着急。最终，五人同时到达目的地。加快脚步的四人成了落汤鸡，而第五人身上却一点也没湿。这是怎么回事呢? </t>
+  </si>
+  <si>
+    <t>第五个人呆在棺材里是个死人，由四个人抬着走!</t>
+  </si>
+  <si>
+    <t>一个男的开着车听着广播，突然广播中断了，一会儿又再次响了起来，男的听了一会儿就把车停下开枪自杀了，为什么？</t>
+  </si>
+  <si>
+    <t>男的是电台主播，结婚了有个妻子，同时跟女主播保持着情人关系。男主播约好杀了妻子后与女主播远走高飞，而选在直播节目的时候动手，男主播预先录好录音带，女主播与录音带对答，做成不在场证明。结果杀人以后的出逃路上，男主播发现录音带停了，（技术故障也好，女主播畏罪拆台也好，你自己挑），男主播知道事情已败露，便自杀了。</t>
+  </si>
+  <si>
+    <t>一句话引发精神崩溃</t>
+  </si>
+  <si>
+    <t>五十多岁的张阿姨用辛苦半辈攒下来的280万积蓄，给儿子在城里通过知名中介买了一套二手房作为婚房，中介费也花了不少。既然是作为婚房，张阿姨想要给房子好好装修一下，她找来了装修队先把二手房拆成毛坯。
+工人们刚开工没几天，这天张阿姨来监工，发现他们不好好做工，反而一直闲聊。她上前问责，有个工人说了一句话，她瞬间怒不可遏，立刻遣散了装修队。此后她的心情久久不能平复，精神处于崩溃的边缘。
+你猜这是怎么一回事？那位工人说了什么？</t>
+  </si>
+  <si>
+    <t>装修工人在铲墙皮时发现了白色墙皮下露出熏黑的墙面。工人们觉得奇怪一直在闲聊。张阿姨过来询问为何闲聊不好好做工，有个工人说了一句：“这房子以前一定是被火烧过，墙面都是黑色的”。
+张阿姨震惊之余更多的是愤怒，她买房时中介和房主都承诺房子没有任何问题。她在邻里间四处询问才得知，这房子果然曾经起过火，还烧死了一个人！房主与中介隐瞒此事，张阿姨花了半辈子积蓄给儿子买的婚房竟然是凶宅！碰到这种让人恶心的事，她整个人怒火中烧，精神崩溃。</t>
+  </si>
+  <si>
+    <t>6岁小孩的噩梦</t>
+  </si>
+  <si>
+    <t>这天，4个成年人带着1个小孩从朋友家聚会离开后，自驾行驶在公路上。坐在后排的A男忽然说身体不适想要呕吐，开车的B男说：“我开快点，你再坚持一下，就要到家了”。
+几分钟后，坐在后排中间的6岁小孩忽然说了一句话。从此小孩一直噩梦不断，性格也大变。
+你猜发生了什么事？小孩说了什么话？</t>
+  </si>
+  <si>
+    <t>6岁小孩说了一句：“叔叔的头不见了”。本汤是根据2013年发生在郑州中原西路的真实事件改编，可百度搜索“惊悚无头尸”。4个成年人均饮酒了，坐在后排靠车门的A男说要呕吐，开车的B男就把车开得飞快，想早点送他回家。A男自行打开车窗伸头吐酒，被迎面驶来的大车撞掉头颅。因为夜深路黑，成年人饮过酒头脑不清楚，都昏昏沉沉，并没有人发现这一切。是坐在后排的6岁小孩发现自己身边都是血，告诉了大家“叔叔的头不见了”。警察和急救人员赶到现场，被血腥的场景吓得直打寒战。。</t>
+  </si>
+  <si>
+    <t>电梯噩梦</t>
+  </si>
+  <si>
+    <t>园区里的写字楼A发现了一例新冠疫情，隔壁的写字楼B很紧张，很快采取了一些防护措施。几天后，B写字楼里的一个员工却被大家从电梯直接送到了急诊室。
+你猜这是怎么一回事？</t>
+  </si>
+  <si>
+    <t>写字楼的防护措施是在电梯里配置了棉签，让大家拿棉签去怼电梯按钮，避免交叉感染。但是大家总是喜欢拿着棉签去掏耳朵。这天一个员工在电梯里掏着耳朵，电梯门正要关闭，另一个员工快速挤进了电梯，刚好撞到了掏耳朵员工的手臂，导致棉签顶伤了耳膜，疼得大喊大叫。于是大家把受伤员工送进了急诊室。</t>
+  </si>
+  <si>
+    <t>一心赴死</t>
+  </si>
+  <si>
+    <t>一名女子坐在沙漠中一辆破车里，她的车抛锚了，粮和水已经不多了。沙漠里也没有信号，荒无人烟，她已经做好了等死的决心。她开始阅读一本小说，翻了一页之后，她怔了几秒钟。然后她从包里掏出一把枪，开枪自杀了。
+你猜这是怎么一回事？</t>
+  </si>
+  <si>
+    <t>女子有血友病，她翻书的时候手指被书页滑了一下，开始流血。她本来就只能等死了，现在血一直流，止不住，她想血流尽而死太痛苦了，还是一枪了结吧。</t>
+  </si>
+  <si>
+    <t>你怎么不去开门</t>
+  </si>
+  <si>
+    <t>有个女人在沙发上坐着，她听到门铃响了一声又一声，但她还是坐着没有去开门。她有行为能力开门(不残疾，也没有被困住)，她也不是等别人去开门，她也不是因为讨厌来者，她就是不去开门。
+你猜这是怎么一回事？</t>
+  </si>
+  <si>
+    <t>是她淘气的小儿子在家门口玩，门本来就是开着的，小孩子一直按门铃，就喜欢按门铃，一按门铃就开心的笑。于是她不想管。</t>
+  </si>
+  <si>
+    <t>咚咚咚</t>
+  </si>
+  <si>
+    <t>男子半夜在屋内，忽然听门外楼梯有咚、咚、咚的声音，便惊恐的躲到床底，门开的一瞬间，肝胆俱裂。
+你猜这是怎么一回事？</t>
+  </si>
+  <si>
+    <t>一个小偷潜进了一个杀人犯的屋子，杀人犯当时拖着一具尸体往楼梯上走，咚咚的声音是尸体头被倒拖着撞到每层楼梯的声音，进门时杀人犯倒提着尸体进来，躲在床底的小偷的目光与尸体倒立的头的目光相遇，于是魂飞魄散。</t>
+  </si>
+  <si>
+    <t>劫机事件</t>
+  </si>
+  <si>
+    <t>有一名男子劫持了一架飞机，飞机上还有其他8名乘客和机组人员，以及一些价值连城的珠宝。男子装好了珠宝之后，和机长要来了9个降落伞，男子穿好了其中一个降落伞，跳下飞机，逃之夭夭。
+请问男子为什么多要了8个降落伞呢？你猜这是怎么一回事？</t>
+  </si>
+  <si>
+    <t>男子十分聪明，他要了9个降落伞，谎称要让大家一起跳下去，所以机长只能给他9个好的降落伞，他要保证其他人的平安。如果男子只要1个降落伞，他怕机长会在降落伞上动手脚。</t>
+  </si>
+  <si>
+    <t>化妆疑云</t>
+  </si>
+  <si>
+    <t>结婚前，A男经常为B女化妆，B女也觉得很好看。结婚后，B女不再让A男为自己化妆。直到昨天，A男又为B女化了妆。
+你猜这是怎么一回事？</t>
+  </si>
+  <si>
+    <t>结婚前，A男是个形象设计师，他为B女化妆，B女觉得化很好看。结婚后，A男失业了，他新找了份工作是入殓师又叫葬仪师（给逝者化妆的职业，主要工作是整修逝者面容和身体，比如把破损的皮肤给缝起来，尽可能还原逝者最好的表象。也可叫做为死者化妆整理仪容，纳入棺中的职业）。从此以后B女就再也不让A男给自己化妆了。直到昨天，B女死掉了（出事故或者被A男谋杀了），A男又为B女化了妆。</t>
+  </si>
+  <si>
+    <t>融化的少女</t>
+  </si>
+  <si>
+    <t>哥哥和弟弟同住一间房，这天弟弟在午睡，他睡眼惺忪，迷迷糊糊中看到了一个好看的小姐姐，小姐姐给了他一颗糖果后走进了卫生间。紧接着弟弟又睡着了，等弟弟醒来后，他看到自己手中的糖果，他知道那不是梦，于是马上去卫生间去看那个小姐姐。
+不一会儿，他惊慌的从卫生间跑出来，对哥哥哭喊道：“小姐姐…她…她融化了…”。你猜这是怎么一回事。</t>
+  </si>
+  <si>
+    <t>哥哥是女装大佬，这天他换上了女装准备欣赏自己。但是弟弟睡梦中好像是看到了他，于是他给了弟弟一块糖哄他赶紧睡觉。随即进入洗手间脱掉了女式裙子和高跟鞋，将裙子泡在浴缸中准备晚点洗，结果弟弟看到浴缸旁边有高跟鞋，浴缸里只有女式裙子，没有小姐姐，误以为那个“小姐姐”融化了。</t>
   </si>
 </sst>
 </file>
@@ -1241,104 +1419,222 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
